--- a/templates2/таблица нот и обозначений.xlsx
+++ b/templates2/таблица нот и обозначений.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_app\GuitarChord_maker\templates2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C287D347-81B2-44E1-AC3A-222F632F9B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB18716-94D3-4806-8DBC-E29C4DF0E395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Аккорды" sheetId="1" r:id="rId1"/>
     <sheet name="разметка нот" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>струна</t>
   </si>
@@ -92,6 +92,81 @@
   </si>
   <si>
     <t>1NE6</t>
+  </si>
+  <si>
+    <t>имя аккорда</t>
+  </si>
+  <si>
+    <t>вариант игры</t>
+  </si>
+  <si>
+    <t>начальный лад</t>
+  </si>
+  <si>
+    <t>барэ</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>F нота 1</t>
+  </si>
+  <si>
+    <t>F нота 2</t>
+  </si>
+  <si>
+    <t>F нота 3</t>
+  </si>
+  <si>
+    <t>F нота 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F нота 5 </t>
+  </si>
+  <si>
+    <t>F нота 6</t>
+  </si>
+  <si>
+    <t>N нота 1</t>
+  </si>
+  <si>
+    <t>N нота 2</t>
+  </si>
+  <si>
+    <t>N нота 3</t>
+  </si>
+  <si>
+    <t>N нота 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N нота 5 </t>
+  </si>
+  <si>
+    <t>N нота 6</t>
+  </si>
+  <si>
+    <t>нота 1</t>
+  </si>
+  <si>
+    <t>нота 2</t>
+  </si>
+  <si>
+    <t>нота 3</t>
+  </si>
+  <si>
+    <t>нота 4</t>
+  </si>
+  <si>
+    <t>нота 5</t>
+  </si>
+  <si>
+    <t>нота 6</t>
+  </si>
+  <si>
+    <t>описание</t>
+  </si>
+  <si>
+    <t>Ля мажор</t>
   </si>
 </sst>
 </file>
@@ -144,6 +219,38 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9AB4C89D-AB5A-4A1F-B326-F5F198140701}" name="Таблица1" displayName="Таблица1" ref="A1:W7" totalsRowShown="0">
+  <autoFilter ref="A1:W7" xr:uid="{9AB4C89D-AB5A-4A1F-B326-F5F198140701}"/>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{2072CA9B-0F41-4119-9969-2784396AB402}" name="имя аккорда"/>
+    <tableColumn id="23" xr3:uid="{5829BFBD-B73C-408D-BCF8-107898CE6A27}" name="описание"/>
+    <tableColumn id="2" xr3:uid="{CDFF5103-40D7-4B0E-9D19-1E152CAFA783}" name="вариант игры"/>
+    <tableColumn id="3" xr3:uid="{C0391C4C-2249-4CF2-9178-110DAB003AB2}" name="начальный лад"/>
+    <tableColumn id="4" xr3:uid="{A8FC08C7-57C8-4088-91C9-28568F32EAE9}" name="барэ"/>
+    <tableColumn id="5" xr3:uid="{1E9CEF07-CD1F-462B-8B4A-69E7EF93CCCA}" name="F нота 1"/>
+    <tableColumn id="6" xr3:uid="{24A44A2F-377D-4869-920D-48B0ACB95240}" name="F нота 2"/>
+    <tableColumn id="7" xr3:uid="{66566D65-87F0-42FD-9F38-BCA2EE4E45E9}" name="F нота 3"/>
+    <tableColumn id="8" xr3:uid="{AD855546-C2D3-4A2C-9DE8-CF1CA2A2421B}" name="F нота 4"/>
+    <tableColumn id="9" xr3:uid="{1278A1EA-1D3B-456B-91AE-F8091A3C7567}" name="F нота 5 "/>
+    <tableColumn id="10" xr3:uid="{FC8DC875-B93E-4F53-B1EB-2AD27D3A2A21}" name="F нота 6"/>
+    <tableColumn id="11" xr3:uid="{4B35B046-F488-4F7C-B202-00C66D2A1E5B}" name="N нота 1"/>
+    <tableColumn id="12" xr3:uid="{0C53B8FB-30D2-4F5D-B518-5C77DCC3B080}" name="N нота 2"/>
+    <tableColumn id="13" xr3:uid="{FBD95127-4A27-494C-A8E3-30992EDA1702}" name="N нота 3"/>
+    <tableColumn id="14" xr3:uid="{E44ACFF4-E525-4565-8D9E-1E283CB1FF1C}" name="N нота 4"/>
+    <tableColumn id="15" xr3:uid="{B82B9775-ECE4-4D4B-B571-EE560AF48930}" name="N нота 5 "/>
+    <tableColumn id="16" xr3:uid="{ED8780FE-FE6C-41DE-8221-23CA347F5541}" name="N нота 6"/>
+    <tableColumn id="17" xr3:uid="{24025F14-8246-41EA-A08E-2460E100D450}" name="нота 1"/>
+    <tableColumn id="18" xr3:uid="{7D01BBBF-55FD-4D22-AE48-019B780E3D38}" name="нота 2"/>
+    <tableColumn id="19" xr3:uid="{856EF404-035E-4DD9-841E-076C1BC125B9}" name="нота 3"/>
+    <tableColumn id="20" xr3:uid="{422A429E-6615-4C24-BA26-D9E675D646DC}" name="нота 4"/>
+    <tableColumn id="21" xr3:uid="{7F4A40CE-F4BC-4902-8101-30DC191C43C7}" name="нота 5"/>
+    <tableColumn id="22" xr3:uid="{8377A1E6-E674-4AB5-A126-792C20F79D42}" name="нота 6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,13 +516,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="6" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="15" width="10.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -423,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F8350D-9C57-4940-A43A-A8E431AA1952}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/templates2/таблица нот и обозначений.xlsx
+++ b/templates2/таблица нот и обозначений.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_app\GuitarChord_maker\templates2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB18716-94D3-4806-8DBC-E29C4DF0E395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22A19E5-8961-4927-9EE3-072E5523FD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Аккорды" sheetId="1" r:id="rId1"/>
-    <sheet name="разметка нот" sheetId="2" r:id="rId2"/>
+    <sheet name="CHORDS" sheetId="1" r:id="rId1"/>
+    <sheet name="NOTE" sheetId="2" r:id="rId2"/>
+    <sheet name="RAM" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,13 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
-  <si>
-    <t>струна</t>
-  </si>
-  <si>
-    <t>нота 1 лад</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
   <si>
     <t>1FO1</t>
   </si>
@@ -52,12 +47,6 @@
     <t>1FO6</t>
   </si>
   <si>
-    <t>открытая 1 лад</t>
-  </si>
-  <si>
-    <t>закрытая  лад</t>
-  </si>
-  <si>
     <t>1FX1</t>
   </si>
   <si>
@@ -94,27 +83,9 @@
     <t>1NE6</t>
   </si>
   <si>
-    <t>имя аккорда</t>
-  </si>
-  <si>
-    <t>вариант игры</t>
-  </si>
-  <si>
-    <t>начальный лад</t>
-  </si>
-  <si>
-    <t>барэ</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>F нота 1</t>
-  </si>
-  <si>
-    <t>F нота 2</t>
-  </si>
-  <si>
     <t>F нота 3</t>
   </si>
   <si>
@@ -163,10 +134,169 @@
     <t>нота 6</t>
   </si>
   <si>
-    <t>описание</t>
-  </si>
-  <si>
     <t>Ля мажор</t>
+  </si>
+  <si>
+    <t>1RAM</t>
+  </si>
+  <si>
+    <t>2RAM</t>
+  </si>
+  <si>
+    <t>3RAM</t>
+  </si>
+  <si>
+    <t>4RAM</t>
+  </si>
+  <si>
+    <t>5RAM</t>
+  </si>
+  <si>
+    <t>6RAM</t>
+  </si>
+  <si>
+    <t>7RAM</t>
+  </si>
+  <si>
+    <t>8RAM</t>
+  </si>
+  <si>
+    <t>9RAM</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>LAD</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>3,4,5,6,7,8</t>
+  </si>
+  <si>
+    <t>4,5,6,7,8,9</t>
+  </si>
+  <si>
+    <t>5,6,7,,8,9,10,11</t>
+  </si>
+  <si>
+    <t>6,7,8,9,10,11,12</t>
+  </si>
+  <si>
+    <t>7,8,9,10,11,12,13,14</t>
+  </si>
+  <si>
+    <t>8,9,10,11,12,13,14,15</t>
+  </si>
+  <si>
+    <t>9,10,11,12,13,14,15,16</t>
+  </si>
+  <si>
+    <t>CHORD</t>
+  </si>
+  <si>
+    <t>CAPTION</t>
+  </si>
+  <si>
+    <t>VARIANT</t>
+  </si>
+  <si>
+    <t>1FO</t>
+  </si>
+  <si>
+    <t>1FX</t>
+  </si>
+  <si>
+    <t>1N</t>
+  </si>
+  <si>
+    <t>2N</t>
+  </si>
+  <si>
+    <t>2FO</t>
+  </si>
+  <si>
+    <t>2FX</t>
+  </si>
+  <si>
+    <t>BAR</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>3FO</t>
+  </si>
+  <si>
+    <t>3FX</t>
+  </si>
+  <si>
+    <t>3N</t>
+  </si>
+  <si>
+    <t>4FO</t>
+  </si>
+  <si>
+    <t>4FX</t>
+  </si>
+  <si>
+    <t>4N</t>
+  </si>
+  <si>
+    <t>5FO</t>
+  </si>
+  <si>
+    <t>5FX</t>
+  </si>
+  <si>
+    <t>5N</t>
+  </si>
+  <si>
+    <t>6FO</t>
+  </si>
+  <si>
+    <t>6FX</t>
+  </si>
+  <si>
+    <t>6N</t>
+  </si>
+  <si>
+    <t>7FO</t>
+  </si>
+  <si>
+    <t>7FX</t>
+  </si>
+  <si>
+    <t>7N</t>
+  </si>
+  <si>
+    <t>8FO</t>
+  </si>
+  <si>
+    <t>8FX</t>
+  </si>
+  <si>
+    <t>8N</t>
+  </si>
+  <si>
+    <t>9FO</t>
+  </si>
+  <si>
+    <t>9FX</t>
+  </si>
+  <si>
+    <t>9N</t>
   </si>
 </sst>
 </file>
@@ -225,13 +355,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9AB4C89D-AB5A-4A1F-B326-F5F198140701}" name="Таблица1" displayName="Таблица1" ref="A1:W7" totalsRowShown="0">
   <autoFilter ref="A1:W7" xr:uid="{9AB4C89D-AB5A-4A1F-B326-F5F198140701}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{2072CA9B-0F41-4119-9969-2784396AB402}" name="имя аккорда"/>
-    <tableColumn id="23" xr3:uid="{5829BFBD-B73C-408D-BCF8-107898CE6A27}" name="описание"/>
-    <tableColumn id="2" xr3:uid="{CDFF5103-40D7-4B0E-9D19-1E152CAFA783}" name="вариант игры"/>
-    <tableColumn id="3" xr3:uid="{C0391C4C-2249-4CF2-9178-110DAB003AB2}" name="начальный лад"/>
-    <tableColumn id="4" xr3:uid="{A8FC08C7-57C8-4088-91C9-28568F32EAE9}" name="барэ"/>
-    <tableColumn id="5" xr3:uid="{1E9CEF07-CD1F-462B-8B4A-69E7EF93CCCA}" name="F нота 1"/>
-    <tableColumn id="6" xr3:uid="{24A44A2F-377D-4869-920D-48B0ACB95240}" name="F нота 2"/>
+    <tableColumn id="1" xr3:uid="{2072CA9B-0F41-4119-9969-2784396AB402}" name="CHORD"/>
+    <tableColumn id="23" xr3:uid="{5829BFBD-B73C-408D-BCF8-107898CE6A27}" name="CAPTION"/>
+    <tableColumn id="2" xr3:uid="{CDFF5103-40D7-4B0E-9D19-1E152CAFA783}" name="VARIANT"/>
+    <tableColumn id="25" xr3:uid="{D30F0CD1-2D92-4A87-AC58-A527D28A6DEE}" name="RAM"/>
+    <tableColumn id="4" xr3:uid="{A8FC08C7-57C8-4088-91C9-28568F32EAE9}" name="BAR"/>
+    <tableColumn id="5" xr3:uid="{1E9CEF07-CD1F-462B-8B4A-69E7EF93CCCA}" name="FN"/>
+    <tableColumn id="6" xr3:uid="{24A44A2F-377D-4869-920D-48B0ACB95240}" name="FO"/>
     <tableColumn id="7" xr3:uid="{66566D65-87F0-42FD-9F38-BCA2EE4E45E9}" name="F нота 3"/>
     <tableColumn id="8" xr3:uid="{AD855546-C2D3-4A2C-9DE8-CF1CA2A2421B}" name="F нота 4"/>
     <tableColumn id="9" xr3:uid="{1278A1EA-1D3B-456B-91AE-F8091A3C7567}" name="F нота 5 "/>
@@ -248,6 +378,54 @@
     <tableColumn id="20" xr3:uid="{422A429E-6615-4C24-BA26-D9E675D646DC}" name="нота 4"/>
     <tableColumn id="21" xr3:uid="{7F4A40CE-F4BC-4902-8101-30DC191C43C7}" name="нота 5"/>
     <tableColumn id="22" xr3:uid="{8377A1E6-E674-4AB5-A126-792C20F79D42}" name="нота 6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7F1B57AF-B606-49F0-B6D0-48DE4337BEBF}" name="Таблица5" displayName="Таблица5" ref="A1:AB7" totalsRowShown="0">
+  <autoFilter ref="A1:AB7" xr:uid="{7F1B57AF-B606-49F0-B6D0-48DE4337BEBF}"/>
+  <tableColumns count="28">
+    <tableColumn id="1" xr3:uid="{D8A7A160-0596-420B-8945-3BE96EB1745F}" name="STRING"/>
+    <tableColumn id="2" xr3:uid="{8B86C07A-6232-4ED2-A931-3541C798E4C6}" name="1FO"/>
+    <tableColumn id="3" xr3:uid="{9CB215CC-4CAF-43E9-B576-2EEFD309DCB8}" name="1FX"/>
+    <tableColumn id="4" xr3:uid="{A28F8188-4B7D-4613-8565-16B428A7E097}" name="1N"/>
+    <tableColumn id="5" xr3:uid="{3B49B643-C23C-4431-9FED-3314FD7F821B}" name="2FO"/>
+    <tableColumn id="6" xr3:uid="{4DDBEFD9-46E8-4112-A563-2FE848FC41CF}" name="2FX"/>
+    <tableColumn id="7" xr3:uid="{43745B56-193B-4F97-A25E-381DCECCBCB7}" name="2N"/>
+    <tableColumn id="8" xr3:uid="{7037948C-871B-40D2-8A64-C9D2EB0A9929}" name="3FO"/>
+    <tableColumn id="9" xr3:uid="{5E8DCFF6-C222-4727-BE88-F532618DE0E9}" name="3FX"/>
+    <tableColumn id="10" xr3:uid="{FF73ABBB-3F3F-414E-AFAE-DB135D058125}" name="3N"/>
+    <tableColumn id="11" xr3:uid="{07320514-E8F5-4F89-8E36-19FCC08A46AF}" name="4FO"/>
+    <tableColumn id="12" xr3:uid="{C64CA0BA-1CB7-4FED-A2CD-0D808A088ECD}" name="4FX"/>
+    <tableColumn id="13" xr3:uid="{D8B9C481-47CB-41A1-B5B6-FC6A69B2E919}" name="4N"/>
+    <tableColumn id="14" xr3:uid="{14559EEC-D3DE-4600-8362-84DFB3BAE247}" name="5FO"/>
+    <tableColumn id="15" xr3:uid="{F3F01F6D-AC90-4545-A896-A770E4C341CA}" name="5FX"/>
+    <tableColumn id="16" xr3:uid="{40A792A2-7E1A-4EB6-9615-9614205800C5}" name="5N"/>
+    <tableColumn id="17" xr3:uid="{A7D141F6-56BA-47A2-9ECC-443B34053797}" name="6FO"/>
+    <tableColumn id="18" xr3:uid="{C7ECD333-6126-4C61-ABD5-AB0274DE5317}" name="6FX"/>
+    <tableColumn id="19" xr3:uid="{1BCC61FD-36BE-4040-B008-5DB26E37B920}" name="6N"/>
+    <tableColumn id="20" xr3:uid="{AB433E88-E3B8-4494-8FEE-3B499F405E12}" name="7FO"/>
+    <tableColumn id="21" xr3:uid="{96B3293E-272E-4EF2-AA5F-FDD716357934}" name="7FX"/>
+    <tableColumn id="22" xr3:uid="{0BB1D8CE-B438-4158-A42A-094909B8F2C0}" name="7N"/>
+    <tableColumn id="23" xr3:uid="{7675385E-F5B7-4E46-9FC6-522570579ABF}" name="8FO"/>
+    <tableColumn id="24" xr3:uid="{96230ADB-037A-4347-83DA-156EF7C9B632}" name="8FX"/>
+    <tableColumn id="25" xr3:uid="{DDF733BB-7FBE-4F36-99FE-CA18654B57F6}" name="8N"/>
+    <tableColumn id="26" xr3:uid="{D5FEE5C5-C1D6-4BB4-BA76-13FA96E19079}" name="9FO"/>
+    <tableColumn id="27" xr3:uid="{DB77CD7B-6DB1-4C27-B74A-CF9AA20F021F}" name="9FX"/>
+    <tableColumn id="28" xr3:uid="{AE449475-593B-4EE0-B988-5015A7DEF56A}" name="9N"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5B21E880-98B1-4276-B1C2-5F27978D1EE0}" name="Таблица4" displayName="Таблица4" ref="A1:B10" totalsRowShown="0">
+  <autoFilter ref="A1:B10" xr:uid="{5B21E880-98B1-4276-B1C2-5F27978D1EE0}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E3779E0F-CFE4-4455-8B17-7383FB1C7ABD}" name="RAM"/>
+    <tableColumn id="2" xr3:uid="{869E5F23-6E48-4142-AACB-C2ED05974E3B}" name="LAD"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -518,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,152 +705,167 @@
     <col min="1" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="6" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="15" width="10.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" customWidth="1"/>
+    <col min="5" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="V1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="W1" t="s">
         <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>2</v>
+      <c r="D2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -686,119 +879,296 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F8350D-9C57-4940-A43A-A8E431AA1952}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" t="s">
+        <v>84</v>
+      </c>
+      <c r="X1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414FFAA7-2658-4FE7-809A-BC95804D6571}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/templates2/таблица нот и обозначений.xlsx
+++ b/templates2/таблица нот и обозначений.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_app\GuitarChord_maker\templates2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chibisovi\Desktop\Chibisov\python\GCmaker\templates2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22A19E5-8961-4927-9EE3-072E5523FD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AEB3BB-311E-427B-8F57-E70EF898C7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHORDS" sheetId="1" r:id="rId1"/>
     <sheet name="NOTE" sheetId="2" r:id="rId2"/>
-    <sheet name="RAM" sheetId="4" r:id="rId3"/>
+    <sheet name="COLOR" sheetId="6" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId4"/>
+    <sheet name="RAM" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="168">
   <si>
     <t>1FO1</t>
   </si>
@@ -215,12 +217,6 @@
     <t>1N</t>
   </si>
   <si>
-    <t>2N</t>
-  </si>
-  <si>
-    <t>2FO</t>
-  </si>
-  <si>
     <t>2FX</t>
   </si>
   <si>
@@ -297,13 +293,253 @@
   </si>
   <si>
     <t>9N</t>
+  </si>
+  <si>
+    <t>2FX1</t>
+  </si>
+  <si>
+    <t>3FO1</t>
+  </si>
+  <si>
+    <t>3FX1</t>
+  </si>
+  <si>
+    <t>4FO1</t>
+  </si>
+  <si>
+    <t>4FX1</t>
+  </si>
+  <si>
+    <t>2FO1</t>
+  </si>
+  <si>
+    <t>2FO2</t>
+  </si>
+  <si>
+    <t>2FX2</t>
+  </si>
+  <si>
+    <t>2FO3</t>
+  </si>
+  <si>
+    <t>2FX3</t>
+  </si>
+  <si>
+    <t>2FO4</t>
+  </si>
+  <si>
+    <t>2FX4</t>
+  </si>
+  <si>
+    <t>2FO5</t>
+  </si>
+  <si>
+    <t>2FX5</t>
+  </si>
+  <si>
+    <t>2FO6</t>
+  </si>
+  <si>
+    <t>2FX6</t>
+  </si>
+  <si>
+    <t>2N2</t>
+  </si>
+  <si>
+    <t>2NE1</t>
+  </si>
+  <si>
+    <t>2NB2</t>
+  </si>
+  <si>
+    <t>2NG3</t>
+  </si>
+  <si>
+    <t>2ND4</t>
+  </si>
+  <si>
+    <t>2NA5</t>
+  </si>
+  <si>
+    <t>2NE6</t>
+  </si>
+  <si>
+    <t>3FO2</t>
+  </si>
+  <si>
+    <t>3FX2</t>
+  </si>
+  <si>
+    <t>3FO3</t>
+  </si>
+  <si>
+    <t>3FX3</t>
+  </si>
+  <si>
+    <t>3FO4</t>
+  </si>
+  <si>
+    <t>3FX4</t>
+  </si>
+  <si>
+    <t>3FO5</t>
+  </si>
+  <si>
+    <t>3FX5</t>
+  </si>
+  <si>
+    <t>3FO6</t>
+  </si>
+  <si>
+    <t>3FX6</t>
+  </si>
+  <si>
+    <t>3NE1</t>
+  </si>
+  <si>
+    <t>3NB2</t>
+  </si>
+  <si>
+    <t>3NG3</t>
+  </si>
+  <si>
+    <t>3ND4</t>
+  </si>
+  <si>
+    <t>3NA5</t>
+  </si>
+  <si>
+    <t>3NE6</t>
+  </si>
+  <si>
+    <t>4NE1</t>
+  </si>
+  <si>
+    <t>4NB2</t>
+  </si>
+  <si>
+    <t>4NG3</t>
+  </si>
+  <si>
+    <t>4ND4</t>
+  </si>
+  <si>
+    <t>4NA5</t>
+  </si>
+  <si>
+    <t>4NE6</t>
+  </si>
+  <si>
+    <t>4FO2</t>
+  </si>
+  <si>
+    <t>4FX2</t>
+  </si>
+  <si>
+    <t>4FO3</t>
+  </si>
+  <si>
+    <t>4FX3</t>
+  </si>
+  <si>
+    <t>4FO4</t>
+  </si>
+  <si>
+    <t>4FX4</t>
+  </si>
+  <si>
+    <t>4FO5</t>
+  </si>
+  <si>
+    <t>4FX5</t>
+  </si>
+  <si>
+    <t>4FO6</t>
+  </si>
+  <si>
+    <t>4FX6</t>
+  </si>
+  <si>
+    <t>1F1</t>
+  </si>
+  <si>
+    <t>1FO11</t>
+  </si>
+  <si>
+    <t>1FO21</t>
+  </si>
+  <si>
+    <t>1FO31</t>
+  </si>
+  <si>
+    <t>1FO41</t>
+  </si>
+  <si>
+    <t>1FO51</t>
+  </si>
+  <si>
+    <t>1FO61</t>
+  </si>
+  <si>
+    <t>tone</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>A#</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D#</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F#</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>G#</t>
+  </si>
+  <si>
+    <t>green_3d</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>gold_3d</t>
+  </si>
+  <si>
+    <t>red_3d</t>
+  </si>
+  <si>
+    <t>purple_3d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,16 +547,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -328,17 +584,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -388,18 +945,18 @@
   <autoFilter ref="A1:AB7" xr:uid="{7F1B57AF-B606-49F0-B6D0-48DE4337BEBF}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{D8A7A160-0596-420B-8945-3BE96EB1745F}" name="STRING"/>
-    <tableColumn id="2" xr3:uid="{8B86C07A-6232-4ED2-A931-3541C798E4C6}" name="1FO"/>
-    <tableColumn id="3" xr3:uid="{9CB215CC-4CAF-43E9-B576-2EEFD309DCB8}" name="1FX"/>
-    <tableColumn id="4" xr3:uid="{A28F8188-4B7D-4613-8565-16B428A7E097}" name="1N"/>
-    <tableColumn id="5" xr3:uid="{3B49B643-C23C-4431-9FED-3314FD7F821B}" name="2FO"/>
-    <tableColumn id="6" xr3:uid="{4DDBEFD9-46E8-4112-A563-2FE848FC41CF}" name="2FX"/>
-    <tableColumn id="7" xr3:uid="{43745B56-193B-4F97-A25E-381DCECCBCB7}" name="2N"/>
-    <tableColumn id="8" xr3:uid="{7037948C-871B-40D2-8A64-C9D2EB0A9929}" name="3FO"/>
-    <tableColumn id="9" xr3:uid="{5E8DCFF6-C222-4727-BE88-F532618DE0E9}" name="3FX"/>
-    <tableColumn id="10" xr3:uid="{FF73ABBB-3F3F-414E-AFAE-DB135D058125}" name="3N"/>
-    <tableColumn id="11" xr3:uid="{07320514-E8F5-4F89-8E36-19FCC08A46AF}" name="4FO"/>
-    <tableColumn id="12" xr3:uid="{C64CA0BA-1CB7-4FED-A2CD-0D808A088ECD}" name="4FX"/>
-    <tableColumn id="13" xr3:uid="{D8B9C481-47CB-41A1-B5B6-FC6A69B2E919}" name="4N"/>
+    <tableColumn id="2" xr3:uid="{8B86C07A-6232-4ED2-A931-3541C798E4C6}" name="1FO" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{9CB215CC-4CAF-43E9-B576-2EEFD309DCB8}" name="1FX" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A28F8188-4B7D-4613-8565-16B428A7E097}" name="1N" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{3B49B643-C23C-4431-9FED-3314FD7F821B}" name="2FO2"/>
+    <tableColumn id="6" xr3:uid="{4DDBEFD9-46E8-4112-A563-2FE848FC41CF}" name="2FX2"/>
+    <tableColumn id="7" xr3:uid="{43745B56-193B-4F97-A25E-381DCECCBCB7}" name="2N2"/>
+    <tableColumn id="8" xr3:uid="{7037948C-871B-40D2-8A64-C9D2EB0A9929}" name="3FO" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{5E8DCFF6-C222-4727-BE88-F532618DE0E9}" name="3FX" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{FF73ABBB-3F3F-414E-AFAE-DB135D058125}" name="3N" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{07320514-E8F5-4F89-8E36-19FCC08A46AF}" name="4FO" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{C64CA0BA-1CB7-4FED-A2CD-0D808A088ECD}" name="4FX" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{D8B9C481-47CB-41A1-B5B6-FC6A69B2E919}" name="4N" dataDxfId="0"/>
     <tableColumn id="14" xr3:uid="{14559EEC-D3DE-4600-8362-84DFB3BAE247}" name="5FO"/>
     <tableColumn id="15" xr3:uid="{F3F01F6D-AC90-4545-A896-A770E4C341CA}" name="5FX"/>
     <tableColumn id="16" xr3:uid="{40A792A2-7E1A-4EB6-9615-9614205800C5}" name="5N"/>
@@ -421,6 +978,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{209D79CE-9819-4801-AFB2-07D17A236934}" name="Таблица3" displayName="Таблица3" ref="A1:B13" totalsRowShown="0">
+  <autoFilter ref="A1:B13" xr:uid="{209D79CE-9819-4801-AFB2-07D17A236934}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{07E6B688-4FE1-47C4-9618-786764A7C3A6}" name="tone"/>
+    <tableColumn id="2" xr3:uid="{FD6C67DB-A177-4EFF-8E77-834E4A6481F8}" name="color"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5B21E880-98B1-4276-B1C2-5F27978D1EE0}" name="Таблица4" displayName="Таблица4" ref="A1:B10" totalsRowShown="0">
   <autoFilter ref="A1:B10" xr:uid="{5B21E880-98B1-4276-B1C2-5F27978D1EE0}"/>
   <tableColumns count="2">
@@ -700,20 +1268,20 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="14" width="10.5703125" customWidth="1"/>
+    <col min="1" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="14" width="10.5546875" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -727,13 +1295,13 @@
         <v>45</v>
       </c>
       <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
         <v>65</v>
-      </c>
-      <c r="F1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
       </c>
       <c r="H1" t="s">
         <v>19</v>
@@ -784,7 +1352,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -798,7 +1366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -812,7 +1380,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -826,7 +1394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -840,7 +1408,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -854,7 +1422,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -879,23 +1447,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F8350D-9C57-4940-A43A-A8E431AA1952}">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>59</v>
@@ -907,161 +1475,388 @@
         <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>78</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>79</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>80</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>81</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>82</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>83</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>84</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>85</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>86</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>87</v>
       </c>
-      <c r="AA1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>6</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1072,6 +1867,188 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F886372-8571-4EBE-B60F-0A33A6F2EC9F}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8396BE33-8202-4738-8997-526255BCB6C6}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414FFAA7-2658-4FE7-809A-BC95804D6571}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -1079,13 +2056,13 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1093,7 +2070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1101,7 +2078,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1109,7 +2086,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1117,7 +2094,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1125,7 +2102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1133,7 +2110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1141,7 +2118,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1149,7 +2126,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1157,7 +2134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
